--- a/biology/Médecine/Dystonie_avec_parkinsonisme_liée_à_l'X/Dystonie_avec_parkinsonisme_liée_à_l'X.xlsx
+++ b/biology/Médecine/Dystonie_avec_parkinsonisme_liée_à_l'X/Dystonie_avec_parkinsonisme_liée_à_l'X.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dystonie_avec_parkinsonisme_li%C3%A9e_%C3%A0_l%27X</t>
+          <t>Dystonie_avec_parkinsonisme_liée_à_l'X</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La dystonie avec parkinsonisme liée à l'X est une maladie génétique survenant vers 39 ans chez un homme vivant ou ayant des ancêtres des îles Panay des Philippines. La maladie se caractérise par une dystonie de gravité variable et un syndrome parkinsonien.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dystonie_avec_parkinsonisme_li%C3%A9e_%C3%A0_l%27X</t>
+          <t>Dystonie_avec_parkinsonisme_liée_à_l'X</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(en) Virgilio Gerald H Evidente, X-Linked Dystonia-Parkinsonism In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Virgilio Gerald H Evidente, X-Linked Dystonia-Parkinsonism In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 </t>
         </is>
       </c>
     </row>
